--- a/Introduction_to_Bigdata/naver_news/naver_삼성전자_result_0101_1031.xlsx
+++ b/Introduction_to_Bigdata/naver_news/naver_삼성전자_result_0101_1031.xlsx
@@ -3142,7 +3142,7 @@
     <t>2021.02.24.</t>
   </si>
   <si>
-    <t>C1면</t>
+    <t>2021.02.24</t>
   </si>
   <si>
     <t>2021.02.17.</t>
